--- a/QuantLibXL2/Data2/XLS/EUR/EUR_YCSTDBootstrapping.xlsx
+++ b/QuantLibXL2/Data2/XLS/EUR/EUR_YCSTDBootstrapping.xlsx
@@ -1840,7 +1840,7 @@
       <sheetData sheetId="1">
         <row r="7">
           <cell r="E7" t="str">
-            <v>EURSTD#0001</v>
+            <v>EURSTD#0000</v>
           </cell>
         </row>
       </sheetData>
@@ -2340,7 +2340,7 @@
         <v>64</v>
       </c>
       <c r="D11" s="53">
-        <v>42246.784467592595</v>
+        <v>42247.465740740743</v>
       </c>
       <c r="E11" s="32"/>
       <c r="F11" s="31"/>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="D14" s="50" t="str">
         <f>_xll.qlPiecewiseYieldCurve(,D16,ObjectOverwrite,Permanent,NDays,Calendar,_xll.ohPack(Selected!D2:D126),"Actual/365 (Fixed)",,,Accuracy,TraitsID,InterpolatorID)</f>
-        <v>_EURYCSTD#0002</v>
+        <v>_EURYCSTD#0003</v>
       </c>
       <c r="E14" s="32"/>
       <c r="F14" s="31"/>
@@ -2525,7 +2525,7 @@
       </c>
       <c r="D23" s="36">
         <f>MAX(_xll.ohPack(Selected!J1:J126))</f>
-        <v>1.3840007449709844E-2</v>
+        <v>1.3835667618152742E-2</v>
       </c>
       <c r="E23" s="32"/>
       <c r="F23" s="31"/>
@@ -2559,7 +2559,7 @@
       <c r="B26" s="33"/>
       <c r="C26" s="108" t="str">
         <f>[1]Euribor!$E$7</f>
-        <v>EURSTD#0001</v>
+        <v>EURSTD#0000</v>
       </c>
       <c r="D26" s="107" t="b">
         <f>_xll.qlRelinkableHandleLinkTo(,C26,YieldCurve)</f>
@@ -2668,7 +2668,7 @@
     <row r="2" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="110" t="str">
         <f>Deposits!E3</f>
-        <v>EUROND_Quote_rh#0001</v>
+        <v>EUROND_Quote_rh#0000</v>
       </c>
       <c r="C2" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(,B2)</f>
@@ -2702,7 +2702,7 @@
     <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B3" s="116" t="str">
         <f>Deposits!E4</f>
-        <v>EURTND_Quote_rh#0001</v>
+        <v>EURTND_Quote_rh#0000</v>
       </c>
       <c r="C3" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B3)</f>
@@ -2736,7 +2736,7 @@
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B4" s="116" t="str">
         <f>Deposits!E5</f>
-        <v>EURSND_Quote_rh#0001</v>
+        <v>EURSND_Quote_rh#0000</v>
       </c>
       <c r="C4" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B4)</f>
@@ -2770,7 +2770,7 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B5" s="116" t="str">
         <f>Deposits!E6</f>
-        <v>EURSWD_Quote_rh#0001</v>
+        <v>EURSWD_Quote_rh#0000</v>
       </c>
       <c r="C5" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B5)</f>
@@ -2804,7 +2804,7 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="116" t="str">
         <f>Deposits!E7</f>
-        <v>EUR1MD_Quote_rh#0001</v>
+        <v>EUR1MD_Quote_rh#0000</v>
       </c>
       <c r="C6" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B6)</f>
@@ -2838,7 +2838,7 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B7" s="116" t="str">
         <f>Deposits!E8</f>
-        <v>EUR2MD_Quote_rh#0001</v>
+        <v>EUR2MD_Quote_rh#0000</v>
       </c>
       <c r="C7" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B7)</f>
@@ -2872,7 +2872,7 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B8" s="116" t="str">
         <f>Deposits!E9</f>
-        <v>EUR3MD_Quote_rh#0001</v>
+        <v>EUR3MD_Quote_rh#0000</v>
       </c>
       <c r="C8" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B8)</f>
@@ -2973,7 +2973,7 @@
     <row r="11" spans="1:15" s="62" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="116" t="str">
         <f>Deposits!E12</f>
-        <v>EUR6MD_Quote_rh#0001</v>
+        <v>EUR6MD_Quote_rh#0000</v>
       </c>
       <c r="C11" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B11)</f>
@@ -3008,7 +3008,7 @@
       <c r="A12" s="6"/>
       <c r="B12" s="110" t="str">
         <f>Futures!J3</f>
-        <v>EURFUT3MK5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MK5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C12" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(,B12)</f>
@@ -3044,7 +3044,7 @@
       <c r="A13" s="4"/>
       <c r="B13" s="116" t="str">
         <f>Futures!J4</f>
-        <v>EURFUT3MM5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C13" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B13)</f>
@@ -3080,7 +3080,7 @@
       <c r="A14" s="4"/>
       <c r="B14" s="116" t="str">
         <f>Futures!J5</f>
-        <v>EURFUT3MN5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MN5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C14" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B14)</f>
@@ -3116,7 +3116,7 @@
       <c r="A15" s="4"/>
       <c r="B15" s="116" t="str">
         <f>Futures!J6</f>
-        <v>EURFUT3MQ5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MQ5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C15" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B15)</f>
@@ -3152,7 +3152,7 @@
       <c r="A16" s="4"/>
       <c r="B16" s="116" t="str">
         <f>Futures!J7</f>
-        <v>EURFUT3MU5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C16" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B16)</f>
@@ -3188,7 +3188,7 @@
       <c r="A17" s="4"/>
       <c r="B17" s="116" t="str">
         <f>Futures!J8</f>
-        <v>EURFUT3MV5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MV5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C17" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B17)</f>
@@ -3224,7 +3224,7 @@
       <c r="A18" s="4"/>
       <c r="B18" s="116" t="str">
         <f>Futures!J9</f>
-        <v>EURFUT3MX5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MX5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C18" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B18)</f>
@@ -3260,7 +3260,7 @@
       <c r="A19" s="4"/>
       <c r="B19" s="116" t="str">
         <f>Futures!J10</f>
-        <v>EURFUT3MZ5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C19" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B19)</f>
@@ -3296,7 +3296,7 @@
       <c r="A20" s="4"/>
       <c r="B20" s="116" t="str">
         <f>Futures!J11</f>
-        <v>EURFUT3MF6ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MF6ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C20" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B20)</f>
@@ -3332,7 +3332,7 @@
       <c r="A21" s="4"/>
       <c r="B21" s="116" t="str">
         <f>Futures!J12</f>
-        <v>EURFUT3MG6ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MG6ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C21" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B21)</f>
@@ -3368,7 +3368,7 @@
       <c r="A22" s="4"/>
       <c r="B22" s="116" t="str">
         <f>Futures!J13</f>
-        <v>EURFUT3MH6ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH6ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C22" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B22)</f>
@@ -3404,7 +3404,7 @@
       <c r="A23" s="4"/>
       <c r="B23" s="116" t="str">
         <f>Futures!J14</f>
-        <v>EURFUT3MJ6ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MJ6ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C23" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B23)</f>
@@ -3440,7 +3440,7 @@
       <c r="A24" s="4"/>
       <c r="B24" s="116" t="str">
         <f>Futures!J15</f>
-        <v>EURFUT3MM6ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM6ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C24" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B24)</f>
@@ -3476,7 +3476,7 @@
       <c r="A25" s="4"/>
       <c r="B25" s="116" t="str">
         <f>Futures!J16</f>
-        <v>EURFUT3MU6ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU6ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C25" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B25)</f>
@@ -3512,7 +3512,7 @@
       <c r="A26" s="4"/>
       <c r="B26" s="116" t="str">
         <f>Futures!J17</f>
-        <v>EURFUT3MZ6ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ6ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C26" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B26)</f>
@@ -3548,7 +3548,7 @@
       <c r="A27" s="4"/>
       <c r="B27" s="116" t="str">
         <f>Futures!J18</f>
-        <v>EURFUT3MH7ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH7ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C27" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B27)</f>
@@ -3584,7 +3584,7 @@
       <c r="A28" s="4"/>
       <c r="B28" s="116" t="str">
         <f>Futures!J19</f>
-        <v>EURFUT3MM7ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM7ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C28" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B28)</f>
@@ -3620,7 +3620,7 @@
       <c r="A29" s="4"/>
       <c r="B29" s="116" t="str">
         <f>Futures!J20</f>
-        <v>EURFUT3MU7ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU7ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C29" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B29)</f>
@@ -3656,7 +3656,7 @@
       <c r="A30" s="4"/>
       <c r="B30" s="116" t="str">
         <f>Futures!J21</f>
-        <v>EURFUT3MZ7ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ7ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C30" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B30)</f>
@@ -3692,7 +3692,7 @@
       <c r="A31" s="4"/>
       <c r="B31" s="116" t="str">
         <f>Futures!J22</f>
-        <v>EURFUT3MH8ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH8ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C31" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B31)</f>
@@ -3728,7 +3728,7 @@
       <c r="A32" s="4"/>
       <c r="B32" s="116" t="str">
         <f>Futures!J23</f>
-        <v>EURFUT3MM8ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM8ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C32" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B32)</f>
@@ -3764,7 +3764,7 @@
       <c r="A33" s="4"/>
       <c r="B33" s="116" t="str">
         <f>Futures!J24</f>
-        <v>EURFUT3MU8ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU8ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C33" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B33)</f>
@@ -3800,7 +3800,7 @@
       <c r="A34" s="4"/>
       <c r="B34" s="116" t="str">
         <f>Futures!J25</f>
-        <v>EURFUT3MZ8ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ8ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C34" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B34)</f>
@@ -3836,7 +3836,7 @@
       <c r="A35" s="4"/>
       <c r="B35" s="116" t="str">
         <f>Futures!J26</f>
-        <v>EURFUT3MH9ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH9ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C35" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B35)</f>
@@ -3872,7 +3872,7 @@
       <c r="A36" s="4"/>
       <c r="B36" s="116" t="str">
         <f>Futures!J27</f>
-        <v>EURFUT3MM9ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM9ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C36" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B36)</f>
@@ -3908,7 +3908,7 @@
       <c r="A37" s="4"/>
       <c r="B37" s="116" t="str">
         <f>Futures!J28</f>
-        <v>EURFUT3MU9ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU9ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C37" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B37)</f>
@@ -3944,7 +3944,7 @@
       <c r="A38" s="4"/>
       <c r="B38" s="116" t="str">
         <f>Futures!J29</f>
-        <v>EURFUT3MZ9ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ9ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C38" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B38)</f>
@@ -3980,7 +3980,7 @@
       <c r="A39" s="4"/>
       <c r="B39" s="116" t="str">
         <f>Futures!J30</f>
-        <v>EURFUT3MH0ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH0ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C39" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B39)</f>
@@ -4016,7 +4016,7 @@
       <c r="A40" s="4"/>
       <c r="B40" s="116" t="str">
         <f>Futures!J31</f>
-        <v>EURFUT3MM0ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM0ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C40" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B40)</f>
@@ -4052,7 +4052,7 @@
       <c r="A41" s="4"/>
       <c r="B41" s="116" t="str">
         <f>Futures!J32</f>
-        <v>EURFUT3MU0ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU0ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C41" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B41)</f>
@@ -4088,7 +4088,7 @@
       <c r="A42" s="4"/>
       <c r="B42" s="116" t="str">
         <f>Futures!J33</f>
-        <v>EURFUT3MZ0ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ0ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C42" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B42)</f>
@@ -4124,7 +4124,7 @@
       <c r="A43" s="4"/>
       <c r="B43" s="116" t="str">
         <f>Futures!J34</f>
-        <v>EURFUT3MH1ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH1ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C43" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B43)</f>
@@ -4160,7 +4160,7 @@
       <c r="A44" s="4"/>
       <c r="B44" s="116" t="str">
         <f>Futures!J35</f>
-        <v>EURFUT3MM1ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM1ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C44" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B44)</f>
@@ -4196,7 +4196,7 @@
       <c r="A45" s="4"/>
       <c r="B45" s="116" t="str">
         <f>Futures!J36</f>
-        <v>EURFUT3MU1ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU1ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C45" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B45)</f>
@@ -4232,7 +4232,7 @@
       <c r="A46" s="4"/>
       <c r="B46" s="116" t="str">
         <f>Futures!J37</f>
-        <v>EURFUT3MZ1ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ1ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C46" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B46)</f>
@@ -4268,7 +4268,7 @@
       <c r="A47" s="4"/>
       <c r="B47" s="116" t="str">
         <f>Futures!J38</f>
-        <v>EURFUT3MH2ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH2ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C47" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B47)</f>
@@ -4304,7 +4304,7 @@
       <c r="A48" s="4"/>
       <c r="B48" s="116" t="str">
         <f>Futures!J39</f>
-        <v>EURFUT3MM2ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM2ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C48" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B48)</f>
@@ -4340,7 +4340,7 @@
       <c r="A49" s="4"/>
       <c r="B49" s="116" t="str">
         <f>Futures!J40</f>
-        <v>EURFUT3MU2ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU2ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C49" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B49)</f>
@@ -4376,7 +4376,7 @@
       <c r="A50" s="4"/>
       <c r="B50" s="116" t="str">
         <f>Futures!J41</f>
-        <v>EURFUT3MZ2ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ2ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C50" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B50)</f>
@@ -4412,7 +4412,7 @@
       <c r="A51" s="4"/>
       <c r="B51" s="116" t="str">
         <f>Futures!J42</f>
-        <v>EURFUT3MH3ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH3ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C51" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B51)</f>
@@ -4448,7 +4448,7 @@
       <c r="A52" s="4"/>
       <c r="B52" s="116" t="str">
         <f>Futures!J43</f>
-        <v>EURFUT3MM3ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM3ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C52" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B52)</f>
@@ -4484,7 +4484,7 @@
       <c r="A53" s="3"/>
       <c r="B53" s="116" t="str">
         <f>Futures!J44</f>
-        <v>EURFUT3MU3ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU3ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="C53" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B53)</f>
@@ -4521,7 +4521,7 @@
       <c r="A54" s="4"/>
       <c r="B54" s="110" t="str">
         <f>FRAs!H3</f>
-        <v>EUR1x7F_Quote_rh#0001</v>
+        <v>EUR1x7F_Quote_rh#0000</v>
       </c>
       <c r="C54" s="111" t="str">
         <f>_xll.qlRateHelperQuoteName(,B54)</f>
@@ -4555,7 +4555,7 @@
       <c r="A55" s="4"/>
       <c r="B55" s="116" t="str">
         <f>FRAs!H4</f>
-        <v>EUR2x8F_Quote_rh#0001</v>
+        <v>EUR2x8F_Quote_rh#0000</v>
       </c>
       <c r="C55" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B55)</f>
@@ -4589,7 +4589,7 @@
       <c r="A56" s="4"/>
       <c r="B56" s="116" t="str">
         <f>FRAs!H5</f>
-        <v>EUR3x9F_Quote_rh#0001</v>
+        <v>EUR3x9F_Quote_rh#0000</v>
       </c>
       <c r="C56" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B56)</f>
@@ -4623,7 +4623,7 @@
       <c r="A57" s="4"/>
       <c r="B57" s="116" t="str">
         <f>FRAs!H6</f>
-        <v>EUR4x10F_Quote_rh#0001</v>
+        <v>EUR4x10F_Quote_rh#0000</v>
       </c>
       <c r="C57" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B57)</f>
@@ -4657,7 +4657,7 @@
       <c r="A58" s="4"/>
       <c r="B58" s="116" t="str">
         <f>FRAs!H7</f>
-        <v>EUR5x11F_Quote_rh#0001</v>
+        <v>EUR5x11F_Quote_rh#0000</v>
       </c>
       <c r="C58" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B58)</f>
@@ -4691,7 +4691,7 @@
       <c r="A59" s="4"/>
       <c r="B59" s="116" t="str">
         <f>FRAs!H8</f>
-        <v>EUR6x12F_Quote_rh#0001</v>
+        <v>EUR6x12F_Quote_rh#0000</v>
       </c>
       <c r="C59" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B59)</f>
@@ -4725,7 +4725,7 @@
       <c r="A60" s="4"/>
       <c r="B60" s="116" t="str">
         <f>FRAs!H9</f>
-        <v>EUR7x13F_Quote_rh#0001</v>
+        <v>EUR7x13F_Quote_rh#0000</v>
       </c>
       <c r="C60" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B60)</f>
@@ -4759,7 +4759,7 @@
       <c r="A61" s="4"/>
       <c r="B61" s="116" t="str">
         <f>FRAs!H10</f>
-        <v>EUR8x14F_Quote_rh#0001</v>
+        <v>EUR8x14F_Quote_rh#0000</v>
       </c>
       <c r="C61" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B61)</f>
@@ -4793,7 +4793,7 @@
       <c r="A62" s="4"/>
       <c r="B62" s="116" t="str">
         <f>FRAs!H11</f>
-        <v>EUR9x15F_Quote_rh#0001</v>
+        <v>EUR9x15F_Quote_rh#0000</v>
       </c>
       <c r="C62" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B62)</f>
@@ -4827,7 +4827,7 @@
       <c r="A63" s="4"/>
       <c r="B63" s="116" t="str">
         <f>FRAs!H12</f>
-        <v>EUR10x16F_Quote_rh#0001</v>
+        <v>EUR10x16F_Quote_rh#0000</v>
       </c>
       <c r="C63" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B63)</f>
@@ -4861,7 +4861,7 @@
       <c r="A64" s="4"/>
       <c r="B64" s="116" t="str">
         <f>FRAs!H13</f>
-        <v>EUR11x17F_Quote_rh#0001</v>
+        <v>EUR11x17F_Quote_rh#0000</v>
       </c>
       <c r="C64" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B64)</f>
@@ -4895,7 +4895,7 @@
       <c r="A65" s="4"/>
       <c r="B65" s="116" t="str">
         <f>FRAs!H14</f>
-        <v>EUR12x18F_Quote_rh#0001</v>
+        <v>EUR12x18F_Quote_rh#0000</v>
       </c>
       <c r="C65" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B65)</f>
@@ -4929,7 +4929,7 @@
       <c r="A66" s="4"/>
       <c r="B66" s="116" t="str">
         <f>FRAs!H15</f>
-        <v>EUR13x19F_Quote_rh#0001</v>
+        <v>EUR13x19F_Quote_rh#0000</v>
       </c>
       <c r="C66" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B66)</f>
@@ -4963,7 +4963,7 @@
       <c r="A67" s="4"/>
       <c r="B67" s="116" t="str">
         <f>FRAs!H16</f>
-        <v>EUR14x20F_Quote_rh#0001</v>
+        <v>EUR14x20F_Quote_rh#0000</v>
       </c>
       <c r="C67" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B67)</f>
@@ -4997,7 +4997,7 @@
       <c r="A68" s="4"/>
       <c r="B68" s="116" t="str">
         <f>FRAs!H17</f>
-        <v>EUR15x21F_Quote_rh#0001</v>
+        <v>EUR15x21F_Quote_rh#0000</v>
       </c>
       <c r="C68" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B68)</f>
@@ -5031,7 +5031,7 @@
       <c r="A69" s="4"/>
       <c r="B69" s="116" t="str">
         <f>FRAs!H18</f>
-        <v>EUR16x22F_Quote_rh#0001</v>
+        <v>EUR16x22F_Quote_rh#0000</v>
       </c>
       <c r="C69" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B69)</f>
@@ -5065,7 +5065,7 @@
       <c r="A70" s="4"/>
       <c r="B70" s="116" t="str">
         <f>FRAs!H19</f>
-        <v>EUR17x23F_Quote_rh#0001</v>
+        <v>EUR17x23F_Quote_rh#0000</v>
       </c>
       <c r="C70" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B70)</f>
@@ -5099,7 +5099,7 @@
       <c r="A71" s="4"/>
       <c r="B71" s="122" t="str">
         <f>FRAs!H20</f>
-        <v>EUR18x24F_Quote_rh#0001</v>
+        <v>EUR18x24F_Quote_rh#0000</v>
       </c>
       <c r="C71" s="123" t="str">
         <f>_xll.qlRateHelperQuoteName(,B71)</f>
@@ -5132,7 +5132,7 @@
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B72" s="116" t="str">
         <f>Swaps!L5</f>
-        <v>EURAB6E1Y_Quote_rh#0002</v>
+        <v>EURAB6E1Y_Quote_rh#0001</v>
       </c>
       <c r="C72" s="117" t="str">
         <f>_xll.qlRateHelperQuoteName(,B72)</f>
@@ -7314,7 +7314,7 @@
         <v>42870</v>
       </c>
       <c r="J20" s="5">
-        <v>1.1071424406956817E-3</v>
+        <v>1.032585180039292E-3</v>
       </c>
       <c r="L20" s="61"/>
       <c r="M20" s="62"/>
@@ -7354,7 +7354,7 @@
         <v>43234</v>
       </c>
       <c r="J21" s="5">
-        <v>1.8729500179979052E-3</v>
+        <v>1.8230696631480223E-3</v>
       </c>
       <c r="L21" s="61"/>
       <c r="M21" s="62"/>
@@ -7394,7 +7394,7 @@
         <v>43599</v>
       </c>
       <c r="J22" s="5">
-        <v>2.8824114607009337E-3</v>
+        <v>2.8449368950303386E-3</v>
       </c>
       <c r="L22" s="61"/>
       <c r="M22" s="62"/>
@@ -7434,7 +7434,7 @@
         <v>43965</v>
       </c>
       <c r="J23" s="5">
-        <v>4.0485208376149452E-3</v>
+        <v>4.0185093684386745E-3</v>
       </c>
       <c r="L23" s="61"/>
       <c r="M23" s="62"/>
@@ -7474,7 +7474,7 @@
         <v>44330</v>
       </c>
       <c r="J24" s="5">
-        <v>5.2546760783885437E-3</v>
+        <v>5.2296262355251092E-3</v>
       </c>
       <c r="L24" s="61"/>
       <c r="M24" s="62"/>
@@ -7514,7 +7514,7 @@
         <v>44697</v>
       </c>
       <c r="J25" s="5">
-        <v>6.4691499953625914E-3</v>
+        <v>6.4476626771839485E-3</v>
       </c>
       <c r="L25" s="61"/>
       <c r="M25" s="62"/>
@@ -7554,7 +7554,7 @@
         <v>45061</v>
       </c>
       <c r="J26" s="5">
-        <v>7.5796574617397533E-3</v>
+        <v>7.5608220121091427E-3</v>
       </c>
       <c r="L26" s="61"/>
       <c r="M26" s="62"/>
@@ -7594,7 +7594,7 @@
         <v>45426</v>
       </c>
       <c r="J27" s="5">
-        <v>8.5613828688066388E-3</v>
+        <v>8.5446193452904246E-3</v>
       </c>
       <c r="L27" s="61"/>
       <c r="M27" s="62"/>
@@ -7634,7 +7634,7 @@
         <v>45791</v>
       </c>
       <c r="J28" s="5">
-        <v>9.3859845380798411E-3</v>
+        <v>9.3708814577318569E-3</v>
       </c>
       <c r="L28" s="61"/>
       <c r="M28" s="62"/>
@@ -7674,7 +7674,7 @@
         <v>46156</v>
       </c>
       <c r="J29" s="5">
-        <v>1.0132838738880512E-2</v>
+        <v>1.0119095540179309E-2</v>
       </c>
       <c r="L29" s="61"/>
       <c r="M29" s="62"/>
@@ -7714,7 +7714,7 @@
         <v>46521</v>
       </c>
       <c r="J30" s="5">
-        <v>1.0789951510905234E-2</v>
+        <v>1.077734288122102E-2</v>
       </c>
       <c r="L30" s="61"/>
       <c r="M30" s="62"/>
@@ -7754,7 +7754,7 @@
         <v>46888</v>
       </c>
       <c r="J31" s="5">
-        <v>1.1309941142323978E-2</v>
+        <v>1.1298299236146295E-2</v>
       </c>
       <c r="L31" s="61"/>
       <c r="M31" s="62"/>
@@ -7794,7 +7794,7 @@
         <v>47252</v>
       </c>
       <c r="J32" s="5">
-        <v>1.1782706808281182E-2</v>
+        <v>1.1771887179788542E-2</v>
       </c>
       <c r="L32" s="61"/>
       <c r="M32" s="62"/>
@@ -7834,7 +7834,7 @@
         <v>47617</v>
       </c>
       <c r="J33" s="5">
-        <v>1.2193719589202748E-2</v>
+        <v>1.2183615478204594E-2</v>
       </c>
       <c r="L33" s="61"/>
       <c r="M33" s="62"/>
@@ -7874,7 +7874,7 @@
         <v>47982</v>
       </c>
       <c r="J34" s="5">
-        <v>1.2519576993001862E-2</v>
+        <v>1.2510099926115167E-2</v>
       </c>
       <c r="L34" s="61"/>
       <c r="M34" s="62"/>
@@ -7914,7 +7914,7 @@
         <v>48348</v>
       </c>
       <c r="J35" s="5">
-        <v>1.2779227107130574E-2</v>
+        <v>1.2770305452846931E-2</v>
       </c>
       <c r="L35" s="61"/>
       <c r="M35" s="62"/>
@@ -7954,7 +7954,7 @@
         <v>48715</v>
       </c>
       <c r="J36" s="5">
-        <v>1.2987056855480303E-2</v>
+        <v>1.2978630600258277E-2</v>
       </c>
       <c r="L36" s="61"/>
       <c r="M36" s="62"/>
@@ -7994,7 +7994,7 @@
         <v>49079</v>
       </c>
       <c r="J37" s="5">
-        <v>1.3151700843548785E-2</v>
+        <v>1.3143714585717845E-2</v>
       </c>
       <c r="L37" s="61"/>
       <c r="M37" s="62"/>
@@ -8034,7 +8034,7 @@
         <v>49443</v>
       </c>
       <c r="J38" s="5">
-        <v>1.3283870519771286E-2</v>
+        <v>1.327628071056737E-2</v>
       </c>
       <c r="L38" s="61"/>
       <c r="M38" s="62"/>
@@ -8074,7 +8074,7 @@
         <v>49809</v>
       </c>
       <c r="J39" s="5">
-        <v>1.3381267592243722E-2</v>
+        <v>1.3374038778949023E-2</v>
       </c>
       <c r="L39" s="61"/>
       <c r="M39" s="62"/>
@@ -8114,7 +8114,7 @@
         <v>50174</v>
       </c>
       <c r="J40" s="5">
-        <v>1.3458718154670011E-2</v>
+        <v>1.3451816791824566E-2</v>
       </c>
       <c r="L40" s="61"/>
       <c r="M40" s="62"/>
@@ -8154,7 +8154,7 @@
         <v>50539</v>
       </c>
       <c r="J41" s="5">
-        <v>1.3514054286441398E-2</v>
+        <v>1.3507452109997171E-2</v>
       </c>
       <c r="L41" s="61"/>
       <c r="M41" s="62"/>
@@ -8194,7 +8194,7 @@
         <v>50906</v>
       </c>
       <c r="J42" s="5">
-        <v>1.3546890810462144E-2</v>
+        <v>1.3540564535596973E-2</v>
       </c>
       <c r="L42" s="61"/>
       <c r="M42" s="62"/>
@@ -8234,7 +8234,7 @@
         <v>51270</v>
       </c>
       <c r="J43" s="5">
-        <v>1.3591510171809328E-2</v>
+        <v>1.3585435541353457E-2</v>
       </c>
       <c r="L43" s="61"/>
       <c r="M43" s="62"/>
@@ -8274,7 +8274,7 @@
         <v>51635</v>
       </c>
       <c r="J44" s="5">
-        <v>1.3626655749018265E-2</v>
+        <v>1.362081417369365E-2</v>
       </c>
       <c r="L44" s="61"/>
       <c r="M44" s="62"/>
@@ -8314,7 +8314,7 @@
         <v>52000</v>
       </c>
       <c r="J45" s="5">
-        <v>1.3674948120147828E-2</v>
+        <v>1.3669322257844559E-2</v>
       </c>
       <c r="L45" s="61"/>
       <c r="M45" s="62"/>
@@ -8354,7 +8354,7 @@
         <v>52365</v>
       </c>
       <c r="J46" s="5">
-        <v>1.3711952864271076E-2</v>
+        <v>1.3706527400527177E-2</v>
       </c>
       <c r="L46" s="61"/>
       <c r="M46" s="62"/>
@@ -8394,7 +8394,7 @@
         <v>52733</v>
       </c>
       <c r="J47" s="5">
-        <v>1.3748486191319288E-2</v>
+        <v>1.3743248794947319E-2</v>
       </c>
       <c r="L47" s="61"/>
       <c r="M47" s="62"/>
@@ -8434,7 +8434,7 @@
         <v>53097</v>
       </c>
       <c r="J48" s="5">
-        <v>1.3774816001242696E-2</v>
+        <v>1.3769752279992831E-2</v>
       </c>
       <c r="L48" s="61"/>
       <c r="M48" s="62"/>
@@ -8474,7 +8474,7 @@
         <v>54924</v>
       </c>
       <c r="J49" s="5">
-        <v>1.3840007449709844E-2</v>
+        <v>1.3835667618152742E-2</v>
       </c>
       <c r="L49" s="61"/>
       <c r="M49" s="62"/>
@@ -8514,7 +8514,7 @@
         <v>56748</v>
       </c>
       <c r="J50" s="5">
-        <v>1.3788308850032143E-2</v>
+        <v>1.3784511555834369E-2</v>
       </c>
       <c r="L50" s="61"/>
       <c r="M50" s="62"/>
@@ -8554,7 +8554,7 @@
         <v>60401</v>
       </c>
       <c r="J51" s="5">
-        <v>1.3146711149294709E-2</v>
+        <v>1.3143679175973519E-2</v>
       </c>
       <c r="L51" s="61"/>
       <c r="M51" s="62"/>
@@ -8594,7 +8594,7 @@
         <v>64053</v>
       </c>
       <c r="J52" s="5">
-        <v>1.2925494186878722E-2</v>
+        <v>1.2922969970147309E-2</v>
       </c>
       <c r="L52" s="61"/>
       <c r="M52" s="62"/>
@@ -10883,7 +10883,7 @@
       </c>
       <c r="E3" s="143" t="str">
         <f>_xll.qlDepositRateHelper(Trigger,D3&amp;"_rh",ObjectOverwrite,Permanent,D3,C3)</f>
-        <v>EUROND_Quote_rh#0001</v>
+        <v>EUROND_Quote_rh#0000</v>
       </c>
       <c r="F3" s="144" t="str">
         <f>_xll.ohRangeRetrieveError(E3)</f>
@@ -10905,7 +10905,7 @@
       </c>
       <c r="E4" s="202" t="str">
         <f>_xll.qlFraRateHelper(Trigger,D4&amp;"_rh",ObjectOverwrite,Permanent,D4,"1D",C4)</f>
-        <v>EURTND_Quote_rh#0001</v>
+        <v>EURTND_Quote_rh#0000</v>
       </c>
       <c r="F4" s="144" t="str">
         <f>_xll.ohRangeRetrieveError(E4)</f>
@@ -10927,7 +10927,7 @@
       </c>
       <c r="E5" s="206" t="str">
         <f>_xll.qlFraRateHelper(Trigger,D5&amp;"_rh",ObjectOverwrite,Permanent,D5,"2D",C5)</f>
-        <v>EURSND_Quote_rh#0001</v>
+        <v>EURSND_Quote_rh#0000</v>
       </c>
       <c r="F5" s="71" t="str">
         <f>_xll.ohRangeRetrieveError(E5)</f>
@@ -10950,7 +10950,7 @@
       </c>
       <c r="E6" s="149" t="str">
         <f>_xll.qlDepositRateHelper(Trigger,D6&amp;"_rh",ObjectOverwrite,Permanent,D6,C6)</f>
-        <v>EURSWD_Quote_rh#0001</v>
+        <v>EURSWD_Quote_rh#0000</v>
       </c>
       <c r="F6" s="145"/>
       <c r="G6" s="67"/>
@@ -10970,7 +10970,7 @@
       </c>
       <c r="E7" s="149" t="str">
         <f>_xll.qlDepositRateHelper(Trigger,D7&amp;"_rh",ObjectOverwrite,Permanent,D7,C7)</f>
-        <v>EUR1MD_Quote_rh#0001</v>
+        <v>EUR1MD_Quote_rh#0000</v>
       </c>
       <c r="F7" s="145"/>
       <c r="G7" s="67"/>
@@ -10990,7 +10990,7 @@
       </c>
       <c r="E8" s="149" t="str">
         <f>_xll.qlDepositRateHelper(Trigger,D8&amp;"_rh",ObjectOverwrite,Permanent,D8,C8)</f>
-        <v>EUR2MD_Quote_rh#0001</v>
+        <v>EUR2MD_Quote_rh#0000</v>
       </c>
       <c r="F8" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(E8)</f>
@@ -11013,7 +11013,7 @@
       </c>
       <c r="E9" s="149" t="str">
         <f>_xll.qlDepositRateHelper(Trigger,D9&amp;"_rh",ObjectOverwrite,Permanent,D9,C9)</f>
-        <v>EUR3MD_Quote_rh#0001</v>
+        <v>EUR3MD_Quote_rh#0000</v>
       </c>
       <c r="F9" s="145" t="str">
         <f>_xll.ohRangeRetrieveError(E9)</f>
@@ -11027,8 +11027,8 @@
         <v>114</v>
       </c>
       <c r="C10" s="147" t="str">
-        <f>_xll.qlEuribor(Trigger,,ObjectOverwrite,,B10)</f>
-        <v>obj_00546#0001</v>
+        <f>_xll.qlEuribor(Trigger,"idx6",ObjectOverwrite,,B10)</f>
+        <v>idx6#0001</v>
       </c>
       <c r="D10" s="148" t="str">
         <f t="shared" si="0"/>
@@ -11050,8 +11050,8 @@
         <v>115</v>
       </c>
       <c r="C11" s="147" t="str">
-        <f>_xll.qlEuribor(Trigger,,ObjectOverwrite,,B11)</f>
-        <v>obj_00545#0001</v>
+        <f>_xll.qlEuribor(Trigger,"idx7",ObjectOverwrite,,B11)</f>
+        <v>idx7#0001</v>
       </c>
       <c r="D11" s="148" t="str">
         <f t="shared" si="0"/>
@@ -11082,7 +11082,7 @@
       </c>
       <c r="E12" s="68" t="str">
         <f>_xll.qlDepositRateHelper(Trigger,D12&amp;"_rh",ObjectOverwrite,Permanent,D12,C12)</f>
-        <v>EUR6MD_Quote_rh#0001</v>
+        <v>EUR6MD_Quote_rh#0000</v>
       </c>
       <c r="F12" s="71" t="str">
         <f>_xll.ohRangeRetrieveError(E12)</f>
@@ -11202,7 +11202,7 @@
       </c>
       <c r="H3" s="217" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G3&amp;"_rh",ObjectOverwrite,Permanent,G3,B3,E3)</f>
-        <v>EUR1x7F_Quote_rh#0001</v>
+        <v>EUR1x7F_Quote_rh#0000</v>
       </c>
       <c r="I3" s="219" t="str">
         <f>_xll.ohRangeRetrieveError(H3)</f>
@@ -11236,7 +11236,7 @@
       </c>
       <c r="H4" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G4&amp;"_rh",ObjectOverwrite,Permanent,G4,B4,E4)</f>
-        <v>EUR2x8F_Quote_rh#0001</v>
+        <v>EUR2x8F_Quote_rh#0000</v>
       </c>
       <c r="I4" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H4)</f>
@@ -11270,7 +11270,7 @@
       </c>
       <c r="H5" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G5&amp;"_rh",ObjectOverwrite,Permanent,G5,B5,E5)</f>
-        <v>EUR3x9F_Quote_rh#0001</v>
+        <v>EUR3x9F_Quote_rh#0000</v>
       </c>
       <c r="I5" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H5)</f>
@@ -11304,7 +11304,7 @@
       </c>
       <c r="H6" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G6&amp;"_rh",ObjectOverwrite,Permanent,G6,B6,E6)</f>
-        <v>EUR4x10F_Quote_rh#0001</v>
+        <v>EUR4x10F_Quote_rh#0000</v>
       </c>
       <c r="I6" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H6)</f>
@@ -11338,7 +11338,7 @@
       </c>
       <c r="H7" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G7&amp;"_rh",ObjectOverwrite,Permanent,G7,B7,E7)</f>
-        <v>EUR5x11F_Quote_rh#0001</v>
+        <v>EUR5x11F_Quote_rh#0000</v>
       </c>
       <c r="I7" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H7)</f>
@@ -11372,7 +11372,7 @@
       </c>
       <c r="H8" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G8&amp;"_rh",ObjectOverwrite,Permanent,G8,B8,E8)</f>
-        <v>EUR6x12F_Quote_rh#0001</v>
+        <v>EUR6x12F_Quote_rh#0000</v>
       </c>
       <c r="I8" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H8)</f>
@@ -11406,7 +11406,7 @@
       </c>
       <c r="H9" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G9&amp;"_rh",ObjectOverwrite,Permanent,G9,B9,E9)</f>
-        <v>EUR7x13F_Quote_rh#0001</v>
+        <v>EUR7x13F_Quote_rh#0000</v>
       </c>
       <c r="I9" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H9)</f>
@@ -11440,7 +11440,7 @@
       </c>
       <c r="H10" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G10&amp;"_rh",ObjectOverwrite,Permanent,G10,B10,E10)</f>
-        <v>EUR8x14F_Quote_rh#0001</v>
+        <v>EUR8x14F_Quote_rh#0000</v>
       </c>
       <c r="I10" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H10)</f>
@@ -11474,7 +11474,7 @@
       </c>
       <c r="H11" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G11&amp;"_rh",ObjectOverwrite,Permanent,G11,B11,E11)</f>
-        <v>EUR9x15F_Quote_rh#0001</v>
+        <v>EUR9x15F_Quote_rh#0000</v>
       </c>
       <c r="I11" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H11)</f>
@@ -11508,7 +11508,7 @@
       </c>
       <c r="H12" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G12&amp;"_rh",ObjectOverwrite,Permanent,G12,B12,E12)</f>
-        <v>EUR10x16F_Quote_rh#0001</v>
+        <v>EUR10x16F_Quote_rh#0000</v>
       </c>
       <c r="I12" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H12)</f>
@@ -11542,7 +11542,7 @@
       </c>
       <c r="H13" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G13&amp;"_rh",ObjectOverwrite,Permanent,G13,B13,E13)</f>
-        <v>EUR11x17F_Quote_rh#0001</v>
+        <v>EUR11x17F_Quote_rh#0000</v>
       </c>
       <c r="I13" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H13)</f>
@@ -11576,7 +11576,7 @@
       </c>
       <c r="H14" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G14&amp;"_rh",ObjectOverwrite,Permanent,G14,B14,E14)</f>
-        <v>EUR12x18F_Quote_rh#0001</v>
+        <v>EUR12x18F_Quote_rh#0000</v>
       </c>
       <c r="I14" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H14)</f>
@@ -11610,7 +11610,7 @@
       </c>
       <c r="H15" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G15&amp;"_rh",ObjectOverwrite,Permanent,G15,B15,E15)</f>
-        <v>EUR13x19F_Quote_rh#0001</v>
+        <v>EUR13x19F_Quote_rh#0000</v>
       </c>
       <c r="I15" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H15)</f>
@@ -11644,7 +11644,7 @@
       </c>
       <c r="H16" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G16&amp;"_rh",ObjectOverwrite,Permanent,G16,B16,E16)</f>
-        <v>EUR14x20F_Quote_rh#0001</v>
+        <v>EUR14x20F_Quote_rh#0000</v>
       </c>
       <c r="I16" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H16)</f>
@@ -11678,7 +11678,7 @@
       </c>
       <c r="H17" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G17&amp;"_rh",ObjectOverwrite,Permanent,G17,B17,E17)</f>
-        <v>EUR15x21F_Quote_rh#0001</v>
+        <v>EUR15x21F_Quote_rh#0000</v>
       </c>
       <c r="I17" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H17)</f>
@@ -11712,7 +11712,7 @@
       </c>
       <c r="H18" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G18&amp;"_rh",ObjectOverwrite,Permanent,G18,B18,E18)</f>
-        <v>EUR16x22F_Quote_rh#0001</v>
+        <v>EUR16x22F_Quote_rh#0000</v>
       </c>
       <c r="I18" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H18)</f>
@@ -11746,7 +11746,7 @@
       </c>
       <c r="H19" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G19&amp;"_rh",ObjectOverwrite,Permanent,G19,B19,E19)</f>
-        <v>EUR17x23F_Quote_rh#0001</v>
+        <v>EUR17x23F_Quote_rh#0000</v>
       </c>
       <c r="I19" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H19)</f>
@@ -11780,7 +11780,7 @@
       </c>
       <c r="H20" s="220" t="str">
         <f>_xll.qlFraRateHelper(Trigger,G20&amp;"_rh",ObjectOverwrite,Permanent,G20,B20,E20)</f>
-        <v>EUR18x24F_Quote_rh#0001</v>
+        <v>EUR18x24F_Quote_rh#0000</v>
       </c>
       <c r="I20" s="222" t="str">
         <f>_xll.ohRangeRetrieveError(H20)</f>
@@ -11919,7 +11919,7 @@
       </c>
       <c r="J3" s="167" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I3&amp;"_rh",ObjectOverwrite,Permanent,$H3,C3,$E3,$G3,$I3)</f>
-        <v>EURFUT3MK5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MK5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K3" s="168" t="str">
         <f>_xll.ohRangeRetrieveError(J3)</f>
@@ -11960,7 +11960,7 @@
       </c>
       <c r="J4" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I4&amp;"_rh",ObjectOverwrite,Permanent,$H4,C4,$E4,$G4,$I4)</f>
-        <v>EURFUT3MM5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K4" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J4)</f>
@@ -12001,7 +12001,7 @@
       </c>
       <c r="J5" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I5&amp;"_rh",ObjectOverwrite,Permanent,$H5,C5,$E5,$G5,$I5)</f>
-        <v>EURFUT3MN5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MN5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K5" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J5)</f>
@@ -12042,7 +12042,7 @@
       </c>
       <c r="J6" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I6&amp;"_rh",ObjectOverwrite,Permanent,$H6,C6,$E6,$G6,$I6)</f>
-        <v>EURFUT3MQ5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MQ5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K6" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J6)</f>
@@ -12083,7 +12083,7 @@
       </c>
       <c r="J7" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I7&amp;"_rh",ObjectOverwrite,Permanent,$H7,C7,$E7,$G7,$I7)</f>
-        <v>EURFUT3MU5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K7" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J7)</f>
@@ -12124,7 +12124,7 @@
       </c>
       <c r="J8" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I8&amp;"_rh",ObjectOverwrite,Permanent,$H8,C8,$E8,$G8,$I8)</f>
-        <v>EURFUT3MV5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MV5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K8" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J8)</f>
@@ -12165,7 +12165,7 @@
       </c>
       <c r="J9" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I9&amp;"_rh",ObjectOverwrite,Permanent,$H9,C9,$E9,$G9,$I9)</f>
-        <v>EURFUT3MX5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MX5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K9" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J9)</f>
@@ -12206,7 +12206,7 @@
       </c>
       <c r="J10" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I10&amp;"_rh",ObjectOverwrite,Permanent,$H10,C10,$E10,$G10,$I10)</f>
-        <v>EURFUT3MZ5ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ5ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K10" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J10)</f>
@@ -12247,7 +12247,7 @@
       </c>
       <c r="J11" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I11&amp;"_rh",ObjectOverwrite,Permanent,$H11,C11,$E11,$G11,$I11)</f>
-        <v>EURFUT3MF6ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MF6ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K11" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J11)</f>
@@ -12288,7 +12288,7 @@
       </c>
       <c r="J12" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I12&amp;"_rh",ObjectOverwrite,Permanent,$H12,C12,$E12,$G12,$I12)</f>
-        <v>EURFUT3MG6ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MG6ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K12" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J12)</f>
@@ -12329,7 +12329,7 @@
       </c>
       <c r="J13" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I13&amp;"_rh",ObjectOverwrite,Permanent,$H13,C13,$E13,$G13,$I13)</f>
-        <v>EURFUT3MH6ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH6ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K13" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J13)</f>
@@ -12370,7 +12370,7 @@
       </c>
       <c r="J14" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I14&amp;"_rh",ObjectOverwrite,Permanent,$H14,C14,$E14,$G14,$I14)</f>
-        <v>EURFUT3MJ6ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MJ6ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K14" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J14)</f>
@@ -12411,7 +12411,7 @@
       </c>
       <c r="J15" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I15&amp;"_rh",ObjectOverwrite,Permanent,$H15,C15,$E15,$G15,$I15)</f>
-        <v>EURFUT3MM6ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM6ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K15" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J15)</f>
@@ -12452,7 +12452,7 @@
       </c>
       <c r="J16" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I16&amp;"_rh",ObjectOverwrite,Permanent,$H16,C16,$E16,$G16,$I16)</f>
-        <v>EURFUT3MU6ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU6ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K16" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J16)</f>
@@ -12493,7 +12493,7 @@
       </c>
       <c r="J17" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I17&amp;"_rh",ObjectOverwrite,Permanent,$H17,C17,$E17,$G17,$I17)</f>
-        <v>EURFUT3MZ6ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ6ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K17" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J17)</f>
@@ -12534,7 +12534,7 @@
       </c>
       <c r="J18" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I18&amp;"_rh",ObjectOverwrite,Permanent,$H18,C18,$E18,$G18,$I18)</f>
-        <v>EURFUT3MH7ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH7ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K18" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J18)</f>
@@ -12575,7 +12575,7 @@
       </c>
       <c r="J19" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I19&amp;"_rh",ObjectOverwrite,Permanent,$H19,C19,$E19,$G19,$I19)</f>
-        <v>EURFUT3MM7ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM7ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K19" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J19)</f>
@@ -12616,7 +12616,7 @@
       </c>
       <c r="J20" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I20&amp;"_rh",ObjectOverwrite,Permanent,$H20,C20,$E20,$G20,$I20)</f>
-        <v>EURFUT3MU7ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU7ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K20" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J20)</f>
@@ -12657,7 +12657,7 @@
       </c>
       <c r="J21" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I21&amp;"_rh",ObjectOverwrite,Permanent,$H21,C21,$E21,$G21,$I21)</f>
-        <v>EURFUT3MZ7ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ7ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K21" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J21)</f>
@@ -12698,7 +12698,7 @@
       </c>
       <c r="J22" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I22&amp;"_rh",ObjectOverwrite,Permanent,$H22,C22,$E22,$G22,$I22)</f>
-        <v>EURFUT3MH8ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH8ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K22" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J22)</f>
@@ -12739,7 +12739,7 @@
       </c>
       <c r="J23" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I23&amp;"_rh",ObjectOverwrite,Permanent,$H23,C23,$E23,$G23,$I23)</f>
-        <v>EURFUT3MM8ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM8ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K23" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J23)</f>
@@ -12780,7 +12780,7 @@
       </c>
       <c r="J24" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I24&amp;"_rh",ObjectOverwrite,Permanent,$H24,C24,$E24,$G24,$I24)</f>
-        <v>EURFUT3MU8ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU8ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K24" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J24)</f>
@@ -12821,7 +12821,7 @@
       </c>
       <c r="J25" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I25&amp;"_rh",ObjectOverwrite,Permanent,$H25,C25,$E25,$G25,$I25)</f>
-        <v>EURFUT3MZ8ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ8ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K25" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J25)</f>
@@ -12862,7 +12862,7 @@
       </c>
       <c r="J26" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I26&amp;"_rh",ObjectOverwrite,Permanent,$H26,C26,$E26,$G26,$I26)</f>
-        <v>EURFUT3MH9ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH9ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K26" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J26)</f>
@@ -12903,7 +12903,7 @@
       </c>
       <c r="J27" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I27&amp;"_rh",ObjectOverwrite,Permanent,$H27,C27,$E27,$G27,$I27)</f>
-        <v>EURFUT3MM9ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM9ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K27" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J27)</f>
@@ -12944,7 +12944,7 @@
       </c>
       <c r="J28" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I28&amp;"_rh",ObjectOverwrite,Permanent,$H28,C28,$E28,$G28,$I28)</f>
-        <v>EURFUT3MU9ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU9ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K28" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J28)</f>
@@ -12985,7 +12985,7 @@
       </c>
       <c r="J29" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I29&amp;"_rh",ObjectOverwrite,Permanent,$H29,C29,$E29,$G29,$I29)</f>
-        <v>EURFUT3MZ9ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ9ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K29" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J29)</f>
@@ -13026,7 +13026,7 @@
       </c>
       <c r="J30" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I30&amp;"_rh",ObjectOverwrite,Permanent,$H30,C30,$E30,$G30,$I30)</f>
-        <v>EURFUT3MH0ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH0ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K30" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J30)</f>
@@ -13067,7 +13067,7 @@
       </c>
       <c r="J31" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I31&amp;"_rh",ObjectOverwrite,Permanent,$H31,C31,$E31,$G31,$I31)</f>
-        <v>EURFUT3MM0ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM0ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K31" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J31)</f>
@@ -13108,7 +13108,7 @@
       </c>
       <c r="J32" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I32&amp;"_rh",ObjectOverwrite,Permanent,$H32,C32,$E32,$G32,$I32)</f>
-        <v>EURFUT3MU0ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU0ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K32" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J32)</f>
@@ -13149,7 +13149,7 @@
       </c>
       <c r="J33" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I33&amp;"_rh",ObjectOverwrite,Permanent,$H33,C33,$E33,$G33,$I33)</f>
-        <v>EURFUT3MZ0ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ0ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K33" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J33)</f>
@@ -13190,7 +13190,7 @@
       </c>
       <c r="J34" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I34&amp;"_rh",ObjectOverwrite,Permanent,$H34,C34,$E34,$G34,$I34)</f>
-        <v>EURFUT3MH1ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH1ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K34" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J34)</f>
@@ -13231,7 +13231,7 @@
       </c>
       <c r="J35" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I35&amp;"_rh",ObjectOverwrite,Permanent,$H35,C35,$E35,$G35,$I35)</f>
-        <v>EURFUT3MM1ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM1ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K35" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J35)</f>
@@ -13272,7 +13272,7 @@
       </c>
       <c r="J36" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I36&amp;"_rh",ObjectOverwrite,Permanent,$H36,C36,$E36,$G36,$I36)</f>
-        <v>EURFUT3MU1ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU1ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K36" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J36)</f>
@@ -13313,7 +13313,7 @@
       </c>
       <c r="J37" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I37&amp;"_rh",ObjectOverwrite,Permanent,$H37,C37,$E37,$G37,$I37)</f>
-        <v>EURFUT3MZ1ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ1ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K37" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J37)</f>
@@ -13354,7 +13354,7 @@
       </c>
       <c r="J38" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I38&amp;"_rh",ObjectOverwrite,Permanent,$H38,C38,$E38,$G38,$I38)</f>
-        <v>EURFUT3MH2ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH2ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K38" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J38)</f>
@@ -13395,7 +13395,7 @@
       </c>
       <c r="J39" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I39&amp;"_rh",ObjectOverwrite,Permanent,$H39,C39,$E39,$G39,$I39)</f>
-        <v>EURFUT3MM2ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM2ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K39" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J39)</f>
@@ -13436,7 +13436,7 @@
       </c>
       <c r="J40" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I40&amp;"_rh",ObjectOverwrite,Permanent,$H40,C40,$E40,$G40,$I40)</f>
-        <v>EURFUT3MU2ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU2ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K40" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J40)</f>
@@ -13476,7 +13476,7 @@
       </c>
       <c r="J41" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I41&amp;"_rh",ObjectOverwrite,Permanent,$H41,C41,$E41,$G41,$I41)</f>
-        <v>EURFUT3MZ2ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MZ2ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K41" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J41)</f>
@@ -13516,7 +13516,7 @@
       </c>
       <c r="J42" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I42&amp;"_rh",ObjectOverwrite,Permanent,$H42,C42,$E42,$G42,$I42)</f>
-        <v>EURFUT3MH3ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MH3ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K42" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J42)</f>
@@ -13556,7 +13556,7 @@
       </c>
       <c r="J43" s="172" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I43&amp;"_rh",ObjectOverwrite,Permanent,$H43,C43,$E43,$G43,$I43)</f>
-        <v>EURFUT3MM3ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MM3ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K43" s="173" t="str">
         <f>_xll.ohRangeRetrieveError(J43)</f>
@@ -13596,7 +13596,7 @@
       </c>
       <c r="J44" s="159" t="str">
         <f>_xll.qlFuturesRateHelper(Trigger,I44&amp;"_rh",ObjectOverwrite,Permanent,$H44,C44,$E44,$G44,$I44)</f>
-        <v>EURFUT3MU3ConvAdj_Quote_rh#0001</v>
+        <v>EURFUT3MU3ConvAdj_Quote_rh#0000</v>
       </c>
       <c r="K44" s="175" t="str">
         <f>_xll.ohRangeRetrieveError(J44)</f>
@@ -13731,8 +13731,8 @@
       <c r="J3" s="78"/>
       <c r="K3" s="78"/>
       <c r="L3" s="180" t="str">
-        <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(Trigger,,ObjectOverwrite,Permanent,$I$1),IF(UPPER(FamilyName)="LIBOR",qlLibor(,Currency,$I$1,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
-        <v>obj_00547#0001</v>
+        <f>IF(UPPER(FamilyName)="IBOR",_xll.qlEuribor(Trigger,"idx4",ObjectOverwrite,Permanent,$I$1),IF(UPPER(FamilyName)="LIBOR",qlLibor(,"idx5",Currency,$I$1,,Permanent,Trigger,ObjectOverwrite),"--"))</f>
+        <v>idx4#0001</v>
       </c>
       <c r="M3" s="181" t="str">
         <f>_xll.ohRangeRetrieveError(L3)</f>
@@ -13786,7 +13786,7 @@
       </c>
       <c r="J5" s="183" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D5)</f>
-        <v>null_quote_1Y#0002</v>
+        <v>null_quote_1Y#0000</v>
       </c>
       <c r="K5" s="184" t="str">
         <f t="shared" ref="K5:K41" si="1">Currency&amp;$E5&amp;$F5&amp;$D5&amp;QuoteSuffix</f>
@@ -13794,7 +13794,7 @@
       </c>
       <c r="L5" s="185" t="str">
         <f>_xll.qlSwapRateHelper(,K5&amp;"_rh",ObjectOverwrite,Permanent,$K5,B5,$D5,Calendar,$G5,$H5,$I5,$L$3,$J5,C5,DiscountingCurve)</f>
-        <v>EURAB6E1Y_Quote_rh#0002</v>
+        <v>EURAB6E1Y_Quote_rh#0001</v>
       </c>
       <c r="M5" s="186" t="str">
         <f>_xll.ohRangeRetrieveError(L5)</f>
@@ -13832,7 +13832,7 @@
       </c>
       <c r="J6" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D6)</f>
-        <v>null_quote_15M#0001</v>
+        <v>null_quote_15M#0000</v>
       </c>
       <c r="K6" s="189" t="str">
         <f t="shared" si="1"/>
@@ -13878,7 +13878,7 @@
       </c>
       <c r="J7" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D7)</f>
-        <v>null_quote_18M#0001</v>
+        <v>null_quote_18M#0000</v>
       </c>
       <c r="K7" s="189" t="str">
         <f t="shared" si="1"/>
@@ -13924,7 +13924,7 @@
       </c>
       <c r="J8" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D8)</f>
-        <v>null_quote_21M#0001</v>
+        <v>null_quote_21M#0000</v>
       </c>
       <c r="K8" s="189" t="str">
         <f t="shared" si="1"/>
@@ -13970,7 +13970,7 @@
       </c>
       <c r="J9" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D9)</f>
-        <v>null_quote_2Y#0001</v>
+        <v>null_quote_2Y#0000</v>
       </c>
       <c r="K9" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14016,7 +14016,7 @@
       </c>
       <c r="J10" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D10)</f>
-        <v>null_quote_3Y#0001</v>
+        <v>null_quote_3Y#0000</v>
       </c>
       <c r="K10" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14062,7 +14062,7 @@
       </c>
       <c r="J11" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D11)</f>
-        <v>null_quote_4Y#0001</v>
+        <v>null_quote_4Y#0000</v>
       </c>
       <c r="K11" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14108,7 +14108,7 @@
       </c>
       <c r="J12" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D12)</f>
-        <v>null_quote_5Y#0001</v>
+        <v>null_quote_5Y#0000</v>
       </c>
       <c r="K12" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14154,7 +14154,7 @@
       </c>
       <c r="J13" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D13)</f>
-        <v>null_quote_6Y#0001</v>
+        <v>null_quote_6Y#0000</v>
       </c>
       <c r="K13" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14200,7 +14200,7 @@
       </c>
       <c r="J14" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D14)</f>
-        <v>null_quote_7Y#0001</v>
+        <v>null_quote_7Y#0000</v>
       </c>
       <c r="K14" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14246,7 +14246,7 @@
       </c>
       <c r="J15" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D15)</f>
-        <v>null_quote_8Y#0001</v>
+        <v>null_quote_8Y#0000</v>
       </c>
       <c r="K15" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14292,7 +14292,7 @@
       </c>
       <c r="J16" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D16)</f>
-        <v>null_quote_9Y#0001</v>
+        <v>null_quote_9Y#0000</v>
       </c>
       <c r="K16" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14338,7 +14338,7 @@
       </c>
       <c r="J17" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D17)</f>
-        <v>null_quote_10Y#0001</v>
+        <v>null_quote_10Y#0000</v>
       </c>
       <c r="K17" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14384,7 +14384,7 @@
       </c>
       <c r="J18" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D18)</f>
-        <v>null_quote_11Y#0001</v>
+        <v>null_quote_11Y#0000</v>
       </c>
       <c r="K18" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14430,7 +14430,7 @@
       </c>
       <c r="J19" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D19)</f>
-        <v>null_quote_12Y#0001</v>
+        <v>null_quote_12Y#0000</v>
       </c>
       <c r="K19" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14476,7 +14476,7 @@
       </c>
       <c r="J20" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D20)</f>
-        <v>null_quote_13Y#0001</v>
+        <v>null_quote_13Y#0000</v>
       </c>
       <c r="K20" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14522,7 +14522,7 @@
       </c>
       <c r="J21" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D21)</f>
-        <v>null_quote_14Y#0001</v>
+        <v>null_quote_14Y#0000</v>
       </c>
       <c r="K21" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14568,7 +14568,7 @@
       </c>
       <c r="J22" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D22)</f>
-        <v>null_quote_15Y#0001</v>
+        <v>null_quote_15Y#0000</v>
       </c>
       <c r="K22" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="J23" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D23)</f>
-        <v>null_quote_16Y#0001</v>
+        <v>null_quote_16Y#0000</v>
       </c>
       <c r="K23" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14660,7 +14660,7 @@
       </c>
       <c r="J24" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D24)</f>
-        <v>null_quote_17Y#0001</v>
+        <v>null_quote_17Y#0000</v>
       </c>
       <c r="K24" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14706,7 +14706,7 @@
       </c>
       <c r="J25" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D25)</f>
-        <v>null_quote_18Y#0001</v>
+        <v>null_quote_18Y#0000</v>
       </c>
       <c r="K25" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14752,7 +14752,7 @@
       </c>
       <c r="J26" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D26)</f>
-        <v>null_quote_19Y#0001</v>
+        <v>null_quote_19Y#0000</v>
       </c>
       <c r="K26" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14798,7 +14798,7 @@
       </c>
       <c r="J27" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D27)</f>
-        <v>null_quote_20Y#0001</v>
+        <v>null_quote_20Y#0000</v>
       </c>
       <c r="K27" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14844,7 +14844,7 @@
       </c>
       <c r="J28" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D28)</f>
-        <v>null_quote_21Y#0001</v>
+        <v>null_quote_21Y#0000</v>
       </c>
       <c r="K28" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14890,7 +14890,7 @@
       </c>
       <c r="J29" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D29)</f>
-        <v>null_quote_22Y#0001</v>
+        <v>null_quote_22Y#0000</v>
       </c>
       <c r="K29" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14936,7 +14936,7 @@
       </c>
       <c r="J30" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D30)</f>
-        <v>null_quote_23Y#0001</v>
+        <v>null_quote_23Y#0000</v>
       </c>
       <c r="K30" s="189" t="str">
         <f t="shared" si="1"/>
@@ -14982,7 +14982,7 @@
       </c>
       <c r="J31" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D31)</f>
-        <v>null_quote_24Y#0001</v>
+        <v>null_quote_24Y#0000</v>
       </c>
       <c r="K31" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15028,7 +15028,7 @@
       </c>
       <c r="J32" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D32)</f>
-        <v>null_quote_25Y#0001</v>
+        <v>null_quote_25Y#0000</v>
       </c>
       <c r="K32" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15074,7 +15074,7 @@
       </c>
       <c r="J33" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D33)</f>
-        <v>null_quote_26Y#0001</v>
+        <v>null_quote_26Y#0000</v>
       </c>
       <c r="K33" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15120,7 +15120,7 @@
       </c>
       <c r="J34" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D34)</f>
-        <v>null_quote_27Y#0001</v>
+        <v>null_quote_27Y#0000</v>
       </c>
       <c r="K34" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15166,7 +15166,7 @@
       </c>
       <c r="J35" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D35)</f>
-        <v>null_quote_28Y#0001</v>
+        <v>null_quote_28Y#0000</v>
       </c>
       <c r="K35" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15212,7 +15212,7 @@
       </c>
       <c r="J36" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D36)</f>
-        <v>null_quote_29Y#0001</v>
+        <v>null_quote_29Y#0000</v>
       </c>
       <c r="K36" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15258,7 +15258,7 @@
       </c>
       <c r="J37" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D37)</f>
-        <v>null_quote_30Y#0001</v>
+        <v>null_quote_30Y#0000</v>
       </c>
       <c r="K37" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15304,7 +15304,7 @@
       </c>
       <c r="J38" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D38)</f>
-        <v>null_quote_35Y#0001</v>
+        <v>null_quote_35Y#0000</v>
       </c>
       <c r="K38" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15350,7 +15350,7 @@
       </c>
       <c r="J39" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D39)</f>
-        <v>null_quote_40Y#0001</v>
+        <v>null_quote_40Y#0000</v>
       </c>
       <c r="K39" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15396,7 +15396,7 @@
       </c>
       <c r="J40" s="188" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D40)</f>
-        <v>null_quote_50Y#0001</v>
+        <v>null_quote_50Y#0000</v>
       </c>
       <c r="K40" s="189" t="str">
         <f t="shared" si="1"/>
@@ -15442,7 +15442,7 @@
       </c>
       <c r="J41" s="193" t="str">
         <f>_xll.qlSimpleQuote(Trigger,"null_quote_"&amp;D41)</f>
-        <v>null_quote_60Y#0001</v>
+        <v>null_quote_60Y#0000</v>
       </c>
       <c r="K41" s="194" t="str">
         <f t="shared" si="1"/>
